--- a/students.xlsx
+++ b/students.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/rony2024/session7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B5480-ED08-B947-A7E3-73C87D9EEAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3504D-E987-2042-A5D7-9354048EDED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{2A1BBB0B-BF10-9C41-8AD4-614A1601D038}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">students </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -56,6 +53,12 @@
   </si>
   <si>
     <t>marie</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -407,60 +410,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CE082B-F015-7942-BD71-8B17F69E0D6D}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>6</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/rony2024/session7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3504D-E987-2042-A5D7-9354048EDED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403A2CD-0487-474F-BED4-7817B7663726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{2A1BBB0B-BF10-9C41-8AD4-614A1601D038}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
     <t xml:space="preserve">rita </t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -413,25 +413,25 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>6</v>
